--- a/build/utils/exports/reuniones.xlsx
+++ b/build/utils/exports/reuniones.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>Cliente</t>
   </si>
@@ -37,27 +37,189 @@
     <t>Actualizado En</t>
   </si>
   <si>
+    <t>ASOCIACION COOPERATIVA VALLE DE AROMA, R.L.</t>
+  </si>
+  <si>
+    <t>Visita a Catia Valle de Aroma y ver qué necesita para esta semana</t>
+  </si>
+  <si>
+    <t>1/10/2025, 13:00:00</t>
+  </si>
+  <si>
+    <t>Catia</t>
+  </si>
+  <si>
+    <t>programada</t>
+  </si>
+  <si>
+    <t>Carlos Araujo</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS CORAMODIO, C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me comunique con Iskeili para la gestión de cobranza vencida pude lograr que el cliente cancelara 1500$ a tasa Bincance del momento </t>
+  </si>
+  <si>
+    <t>1/10/2025, 9:05:00</t>
+  </si>
+  <si>
+    <t>La urbina</t>
+  </si>
+  <si>
+    <t>completada</t>
+  </si>
+  <si>
+    <t>PRO ELITE COSMETICS, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me comunique con el cliente para saber el estatus de los pagos pendientes por pagar y me informo que realizará abono por zelle </t>
+  </si>
+  <si>
+    <t>1/10/2025, 8:00:00</t>
+  </si>
+  <si>
+    <t>CORPORACION SYS 14/29, C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cerró venta prepagada con el cliente 200kg de Ácido Sulfonico a Granel en Bidones de 20kg </t>
+  </si>
+  <si>
+    <t>30/9/2025, 16:00:00</t>
+  </si>
+  <si>
+    <t>San antonio</t>
+  </si>
+  <si>
+    <t>INVERSIONES CARIDAD 2021, C.A.</t>
+  </si>
+  <si>
+    <t>En mi ruta en Catia se visito al cliente para consultar como va el estatus del pago que tiene vencido me informo que para mañana tiene 920$ disponibles faltarían 160$ para poder cubrir la nota que está vencida</t>
+  </si>
+  <si>
+    <t>1/10/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t>CORPORACION INDUSTRIAL PANA-VEN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Según información de calidad la muestra de sulfónico paso prueba de evaluación positiva,. se le solicito formalmente enviar correo con la aprobación de las muestra para poder cotizar  , crédito de 7-9 días , con nota de entrega o factura según negociación, ultimo precio aprobado al proveedor Ciampai Químico por el concejo la victoria  de sulfónico chino 3.86$  genapol chino 3.94$ hace 1 semana y media </t>
+  </si>
+  <si>
+    <t>30/9/2025, 9:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracay san vicente </t>
+  </si>
+  <si>
+    <t>Mairim Reyes</t>
+  </si>
+  <si>
+    <t>EL SUINO, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No están trabajando contado actualmente proveedor con 30 días de crédito , esperando la autorización de envió de documento la sra Alessadra administración para que se pueda evaluar el crédito por parte de sumichem , Actualmente hay un proveedor que le da precio BCV  muy buenos , ni me dio su nombre . </t>
+  </si>
+  <si>
+    <t>30/9/2025, 11:25:00</t>
+  </si>
+  <si>
+    <t>QUIMICOS DERIVADOS DEL COCO, C.A. (QUIDECO, C.A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se actualizo cotizacion enviada el viernes , esta consiguiendo primero insumo ANHIDRIDO MALEICO, para luego 500k metabisulfito a pecio bs BCV a 2.16$  contado momentáneamente, sera evaluado y me avisaran duracion 12 hrs   </t>
+  </si>
+  <si>
+    <t>30/9/2025, 10:43:00</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS DE PAPEL ARAGUA, C.A.</t>
+  </si>
+  <si>
+    <t>cotización de 7.000k sulfónico a pago en $ 2.64$/k de sumichem esta recibiendo cotizaciones de 8 solicitudes la que ha recibido  cotización un proveedor tiene precio de 2.60$ y otro por debajo</t>
+  </si>
+  <si>
+    <t>30/9/2025, 10:10:00</t>
+  </si>
+  <si>
+    <t>Jamones Curados Jacusa S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrevista con La gerente general de Manofactura. la marca que fabrican es Alpino y Cordillera , le maquilan a Montserratina. para poder comenzar con alianzas comerciales primero debemos entregar muestras para ser evaluadas por el departamento de calidad, muestra solicitadas  con 250gr Eritorbato, glutamato, tripolifosfato, muestra con 500gr para evaluación en planta  Carragenato de Inyeccion MZ500 y Proteína aislado de soya. Cuando se lleve la muestra deben ir acompañado cada uno con la ficha técnica y el COA se tendrá la Reunión con la encargada de compra para el resto de la información de como trabajan con los proveedores.  Compartió consumo aproximados de consumos carragenato de Inyección 1.050k segun su concentración, eritorbato 120k, glutamato 120k, lactato+diacetato 2.400lts, proteina aislado de soya 2.800k, tripolifosfato 1000k </t>
+  </si>
+  <si>
+    <t>29/9/2025, 11:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los teques </t>
+  </si>
+  <si>
     <t>LA MONTSERRATINA, C.A</t>
   </si>
   <si>
+    <t xml:space="preserve">Se entrego al jefe de diseño y desarrollo la muestra de Benzoato , quedando pendiente la muestra de sorbato de potasio. Pasamos a la fase 2 de la evaluación de desarrollo.  Se compartió consumo aproximado de insumos por mes Benzoato 30k, Eritorbato 243k, glutamato 160k, Sorbato de potasio de 300-400k, tripolifosfato 1.238k, proteína aislado de soya 1.654k, lactato+Diacetato 2.707k, Carragenato de emulsión 320k, Almidón de yuca 5.785k.  La empresa Jacusa le maquila a Montserratina </t>
+  </si>
+  <si>
+    <t>29/9/2025, 10:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las tejeria </t>
+  </si>
+  <si>
+    <t>INVERSIONES &amp; DISTRIBUIDORA QUIMICOS R&amp;A, C.A.</t>
+  </si>
+  <si>
+    <t>Se realizo cobranza cancelacion de la nota de entrega # 4940 #4941</t>
+  </si>
+  <si>
+    <t>29/9/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracay </t>
+  </si>
+  <si>
+    <t>MAYICLEAN 1317, C.A</t>
+  </si>
+  <si>
+    <t>Visita semanal y retiro de pago pendiente</t>
+  </si>
+  <si>
+    <t>29/9/2025, 15:59:00</t>
+  </si>
+  <si>
+    <t>Parque central</t>
+  </si>
+  <si>
+    <t>EL REY DE LA LIMPIEZA, C.A</t>
+  </si>
+  <si>
+    <t>Me comunique con el cliente para saber el estatus del pago pendiente ya que posee varios días de vencido</t>
+  </si>
+  <si>
+    <t>La guaira</t>
+  </si>
+  <si>
+    <t>SUMINISTROS OILFARMA, C.A</t>
+  </si>
+  <si>
+    <t>Visita semanal para cordinación de pagos y ver qué necesita para posible pedido de la semana</t>
+  </si>
+  <si>
+    <t>29/9/2025, 13:00:00</t>
+  </si>
+  <si>
+    <t>Monte cristo</t>
+  </si>
+  <si>
     <t xml:space="preserve">reprogramada para el día lunes 29 de Septiembre entrega de muestra en las instalaciones al jefe de producción montserratina </t>
   </si>
   <si>
     <t>26/9/2025, 10:30:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Las tejeria </t>
-  </si>
-  <si>
     <t>cancelada</t>
   </si>
   <si>
-    <t>Mairim Reyes</t>
-  </si>
-  <si>
-    <t>INVERSIONES CARIDAD 2021, C.A.</t>
-  </si>
-  <si>
     <t>Me comunique con el cliente para informarle que poseia un saldo vencido el cual me respondió que me estaría avisando para irlo a retirar</t>
   </si>
   <si>
@@ -67,12 +229,6 @@
     <t>Baruta</t>
   </si>
   <si>
-    <t>programada</t>
-  </si>
-  <si>
-    <t>Carlos Araujo</t>
-  </si>
-  <si>
     <t>INVERSIONES DA &amp; DY 2015, C.A</t>
   </si>
   <si>
@@ -85,9 +241,6 @@
     <t>Los teques</t>
   </si>
   <si>
-    <t>EL REY DE LA LIMPIEZA, C.A</t>
-  </si>
-  <si>
     <t>Me comunique con el cliente ya que posee más de 19 días de mora y me informo que realizará el día de mañana un pago por zelle y el otro en efectivo la próxima semana</t>
   </si>
   <si>
@@ -97,168 +250,138 @@
     <t>La Guaira</t>
   </si>
   <si>
-    <t>completada</t>
-  </si>
-  <si>
-    <t>PROCESADORA Y COMERCIALIZADORA INNOVA, C.A</t>
+    <t xml:space="preserve">CARNICOS K&amp;M </t>
+  </si>
+  <si>
+    <t>conoce a la administradora Jennifer Gómez en compañía de Jorge otero jefe de producción. se le ofreció las mejor opción de negoción para cotización , la opción que maneja actualmente es con nota de entrega la gran mayoría y pocas con factura forma de pago en bolívares a la tasa BCV de con crédito de 15 días para comenzar. se le indico la documentación necesaria para ser registrado como cliente y evaluación del crédito se envio correo con la planilla de crédito sumichem. Indico consumo hasta la fecha carragenato de emulsión 250k, eritorbato 50k, glutamato 75k, lactato+diacetato 150lts, proteina aislado de soya 1.500k, tripolifosfato 250k alguno de sus proveedores alimentos internacionales, Rimafer, Vicente cabo</t>
+  </si>
+  <si>
+    <t>23/9/2025, 11:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aragua Palo negro </t>
+  </si>
+  <si>
+    <t>FABRICA INSUQUIM, C.A.</t>
+  </si>
+  <si>
+    <t>Se buscará pago pendiente</t>
+  </si>
+  <si>
+    <t>26/9/2025, 10:09:00</t>
+  </si>
+  <si>
+    <t>Visitaré al cliente para concretar nuevos pedidos y hablar sobre el pago pendiente</t>
+  </si>
+  <si>
+    <t>23/9/2025, 13:00:00</t>
+  </si>
+  <si>
+    <t>Se retirará cobranza pendiente y se tomará nuevos pedidos</t>
+  </si>
+  <si>
+    <t>23/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>SUMINISTROS S.S.A. 2018, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se retirará cobranza pendiente y se hablara de nuevos pedidos para esta semana </t>
+  </si>
+  <si>
+    <t>23/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente indica que le de 5 dias para realizar el pago completo. se le indico que puede hacer abono como siempre, tiene un cliente que le debe hacer un pago y lo esta esperando. para el viernes 26 se le estar contactando nuevamente </t>
+  </si>
+  <si>
+    <t>23/9/2025, 9:30:00</t>
+  </si>
+  <si>
+    <t>ALIMENTOS CARNICOS DON PEDRO, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llego de Vacaciones jenny ramirez. Actualmente la producción esta parada y personal en casa por tener mucho inventarios y baja las ventas, se indico las mejores opciones de negociación a futuro , la cual indico que seria a la tasa BCV con 2 opciones de cotización contado y con crédito de 15 días. Cuando se vaya a  reanudar producción me avisaría para cotizar materia prima   </t>
+  </si>
+  <si>
+    <t>Se buscará cobranza pendiente y se hablara de nueva negociación para la próxima semana</t>
+  </si>
+  <si>
+    <t>19/9/2025, 11:10:00</t>
+  </si>
+  <si>
+    <t>RAQUEL MARGIT HERNANDEZ FUNEZ (COMERCIALIZADORA MAS LIMPIO RAQUEL HERNANDEZ, F.P)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se le aprobó 30 días de crédito con autorización de Argenis, actualmente tiene stock de sulfónico y genapol para 20 días . después de los 20 días se comunicara para solicitar requerimiento y realizar cotización </t>
+  </si>
+  <si>
+    <t>18/9/2025, 9:15:00</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS MIDMEN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se le entrego factura original y se le solicito la retención de la factura entregada ese mismo día. se estará en contacto nuevamente a mediados de Octubre para requerimiento, posible aumento de solicitud ya que le están maquilando a capri y Fritz y su producción marca Quidy vinagre orgánico </t>
+  </si>
+  <si>
+    <t>18/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercomunal </t>
+  </si>
+  <si>
+    <t>INVERSIONES MIDA, C.A.</t>
+  </si>
+  <si>
+    <t>Ellos le están maquilando a Euromercado salsa de ajo, inglesa, soya y salsa picante sin gluten, maquilara a Luxor sala de ajo, ingles, soya y salsa de mostaza , le Maquila montserratina para emulsión de sus producto materia prima de mida. Según  producción la nueva modalidad es hacer requerimiento por semana para ser despachado con crédito de 15 días a la tasa BCV . Se le cotizo y aprobaron acido cítrico 25k</t>
+  </si>
+  <si>
+    <t>18/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>ALELIMON 22,C.A</t>
+  </si>
+  <si>
+    <t>Entrega de muestra de lavaplatos en crema al personal de ventas para que fuera evaluada, se hizo posteriormente hacer llegar Oferta del material asi como su imagen del almacen para ser evaluada por el cliente</t>
+  </si>
+  <si>
+    <t>11/9/2025, 9:45:00</t>
+  </si>
+  <si>
+    <t>Cagua Sector Punto de Oro</t>
+  </si>
+  <si>
+    <t>Yraiza Belisario</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA J.S, C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de la factura Nro. XXX al Contador y realizar la solicitud de Comprobante de Retención correspondiente a la factura anclada  </t>
+  </si>
+  <si>
+    <t>11/9/2025, 10:10:00</t>
+  </si>
+  <si>
+    <t>Zona de cagua</t>
+  </si>
+  <si>
+    <t>DISMARKET EXPRESS, C.A</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>26/9/2025, 10:51:00</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
+    <t>11/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t>guacara</t>
   </si>
   <si>
     <t>Norangel Guedez</t>
   </si>
   <si>
-    <t xml:space="preserve">CARNICOS K&amp;M </t>
-  </si>
-  <si>
-    <t>conoce a la administradora Jennifer Gómez en compañía de Jorge otero jefe de producción. se le ofreció las mejor opción de negoción para cotización , la opción que maneja actualmente es con nota de entrega la gran mayoría y pocas con factura forma de pago en bolívares a la tasa BCV de con crédito de 15 días para comenzar. se le indico la documentación necesaria para ser registrado como cliente y evaluación del crédito se envio correo con la planilla de crédito sumichem. Indico consumo hasta la fecha carragenato de emulsión 250k, eritorbato 50k, glutamato 75k, lactato+diacetato 150lts, proteina aislado de soya 1.500k, tripolifosfato 250k alguno de sus proveedores alimentos internacionales, Rimafer, Vicente cabo</t>
-  </si>
-  <si>
-    <t>23/9/2025, 11:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aragua Palo negro </t>
-  </si>
-  <si>
-    <t>FABRICA INSUQUIM, C.A.</t>
-  </si>
-  <si>
-    <t>Se buscará pago pendiente</t>
-  </si>
-  <si>
-    <t>26/9/2025, 10:09:00</t>
-  </si>
-  <si>
-    <t>MAYICLEAN 1317, C.A</t>
-  </si>
-  <si>
-    <t>Visitaré al cliente para concretar nuevos pedidos y hablar sobre el pago pendiente</t>
-  </si>
-  <si>
-    <t>23/9/2025, 1:00:00</t>
-  </si>
-  <si>
-    <t>Parque central</t>
-  </si>
-  <si>
-    <t>ASOCIACION COOPERATIVA VALLE DE AROMA, R.L.</t>
-  </si>
-  <si>
-    <t>Se retirará cobranza pendiente y se tomará nuevos pedidos</t>
-  </si>
-  <si>
-    <t>23/9/2025, 10:00:00</t>
-  </si>
-  <si>
-    <t>Catia</t>
-  </si>
-  <si>
-    <t>SUMINISTROS S.S.A. 2018, C.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se retirará cobranza pendiente y se hablara de nuevos pedidos para esta semana </t>
-  </si>
-  <si>
-    <t>23/9/2025, 11:00:00</t>
-  </si>
-  <si>
-    <t>INVERSIONES &amp; DISTRIBUIDORA QUIMICOS R&amp;A, C.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente indica que le de 5 dias para realizar el pago completo. se le indico que puede hacer abono como siempre, tiene un cliente que le debe hacer un pago y lo esta esperando. para el viernes 26 se le estar contactando nuevamente </t>
-  </si>
-  <si>
-    <t>23/9/2025, 9:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracay </t>
-  </si>
-  <si>
-    <t>ALIMENTOS CARNICOS DON PEDRO, C.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llego de Vacaciones jenny ramirez. Actualmente la producción esta parada y personal en casa por tener mucho inventarios y baja las ventas, se indico las mejores opciones de negociación a futuro , la cual indico que seria a la tasa BCV con 2 opciones de cotización contado y con crédito de 15 días. Cuando se vaya a  reanudar producción me avisaría para cotizar materia prima   </t>
-  </si>
-  <si>
-    <t>Se buscará cobranza pendiente y se hablara de nueva negociación para la próxima semana</t>
-  </si>
-  <si>
-    <t>19/9/2025, 11:10:00</t>
-  </si>
-  <si>
-    <t>RAQUEL MARGIT HERNANDEZ FUNEZ (COMERCIALIZADORA MAS LIMPIO RAQUEL HERNANDEZ, F.P)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se le aprobó 30 días de crédito con autorización de Argenis, actualmente tiene stock de sulfónico y genapol para 20 días . después de los 20 días se comunicara para solicitar requerimiento y realizar cotización </t>
-  </si>
-  <si>
-    <t>18/9/2025, 9:15:00</t>
-  </si>
-  <si>
-    <t>INDUSTRIAS MIDMEN, C.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se le entrego factura original y se le solicito la retención de la factura entregada ese mismo día. se estará en contacto nuevamente a mediados de Octubre para requerimiento, posible aumento de solicitud ya que le están maquilando a capri y Fritz y su producción marca Quidy vinagre orgánico </t>
-  </si>
-  <si>
-    <t>18/9/2025, 11:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intercomunal </t>
-  </si>
-  <si>
-    <t>INVERSIONES MIDA, C.A.</t>
-  </si>
-  <si>
-    <t>Ellos le están maquilando a Euromercado salsa de ajo, inglesa, soya y salsa picante sin gluten, maquilara a Luxor sala de ajo, ingles, soya y salsa de mostaza , le Maquila montserratina para emulsión de sus producto materia prima de mida. Según  producción la nueva modalidad es hacer requerimiento por semana para ser despachado con crédito de 15 días a la tasa BCV . Se le cotizo y aprobaron acido cítrico 25k</t>
-  </si>
-  <si>
-    <t>18/9/2025, 10:00:00</t>
-  </si>
-  <si>
-    <t>ALELIMON 22,C.A</t>
-  </si>
-  <si>
-    <t>Entrega de muestra de lavaplatos en crema al personal de ventas para que fuera evaluada, se hizo posteriormente hacer llegar Oferta del material asi como su imagen del almacen para ser evaluada por el cliente</t>
-  </si>
-  <si>
-    <t>11/9/2025, 9:45:00</t>
-  </si>
-  <si>
-    <t>Cagua Sector Punto de Oro</t>
-  </si>
-  <si>
-    <t>Yraiza Belisario</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDORA J.S, C.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de la factura Nro. XXX al Contador y realizar la solicitud de Comprobante de Retención correspondiente a la factura anclada  </t>
-  </si>
-  <si>
-    <t>11/9/2025, 10:10:00</t>
-  </si>
-  <si>
-    <t>Zona de cagua</t>
-  </si>
-  <si>
-    <t>DISMARKET EXPRESS, C.A</t>
-  </si>
-  <si>
-    <t>11/9/2025, 11:00:00</t>
-  </si>
-  <si>
-    <t>guacara</t>
-  </si>
-  <si>
     <t>C.A. QUIMICAS QUIMSA.</t>
   </si>
   <si>
@@ -293,6 +416,50 @@
   </si>
   <si>
     <t>VARIANTE - YAGUA - SAN DIEGO</t>
+  </si>
+  <si>
+    <t>DISAIN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforzar la alianza comercial hace poco creada, dar a conocer más de cerca nuestros servicios, presentar nuestro portafolio de materias primas, recopilar información estratégica de los consumos y proyecciones de compra de los prospectos y levantar sus requerimientos específicos. Apertura de relaciones con nuevos clientes de alto potencial, generación de oportunidades comerciales a mediano y largo plazo, analizar la tendencia del mercado.
+</t>
+  </si>
+  <si>
+    <t>1/9/2025, 3:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barquisimeto </t>
+  </si>
+  <si>
+    <t>VEMESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentar y dar a conocer a Sumichem como importador directo de materias primas, nuestros servicios, presentar nuestro portafolio de materias primas, recopilar información estratégica de los consumos y proyecciones de compra de los prospectos y levantar sus requerimientos específicos. Apertura de relaciones con nuevos clientes de alto potencial, generación de oportunidades comerciales a mediano y largo plazo, analizar la tendencia del mercado.
+</t>
+  </si>
+  <si>
+    <t>1/9/2025, 2:00:00</t>
+  </si>
+  <si>
+    <t>DIPAVEN</t>
+  </si>
+  <si>
+    <t>FRITZ, C.A</t>
+  </si>
+  <si>
+    <t>1/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>NONI PAN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propuesta comercial </t>
+  </si>
+  <si>
+    <t>11/9/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona industrial norte </t>
   </si>
 </sst>
 </file>
@@ -674,7 +841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
@@ -732,10 +899,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>45926.545143703705</v>
+        <v>45931.69798493056</v>
       </c>
       <c r="H2" s="2">
-        <v>45926.830066435185</v>
+        <v>45931.69798493056</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,533 +922,1027 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>45925.6428600463</v>
+        <v>45931.695525937495</v>
       </c>
       <c r="H3" s="2">
-        <v>45925.6428600463</v>
+        <v>45931.695525937495</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>45925.637961562505</v>
+        <v>45931.68047116898</v>
       </c>
       <c r="H4" s="2">
-        <v>45925.637961562505</v>
+        <v>45931.68047116898</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>45925.63664084491</v>
+        <v>45931.67905605324</v>
       </c>
       <c r="H5" s="2">
-        <v>45925.63664084491</v>
+        <v>45931.67905605324</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>45925.61935706019</v>
+        <v>45931.677015995374</v>
       </c>
       <c r="H6" s="2">
-        <v>45925.62062302083</v>
+        <v>45931.680951435184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
-        <v>45924.587756180554</v>
+        <v>45930.876081180555</v>
       </c>
       <c r="H7" s="2">
-        <v>45924.587756180554</v>
+        <v>45930.881177303236</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2">
-        <v>45923.59069964121</v>
+        <v>45930.87382155092</v>
       </c>
       <c r="H8" s="2">
-        <v>45923.59069964121</v>
+        <v>45930.87382155092</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2">
-        <v>45923.516725567126</v>
+        <v>45930.867647418985</v>
       </c>
       <c r="H9" s="2">
-        <v>45925.63535196759</v>
+        <v>45930.87476533565</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2">
-        <v>45923.51227378473</v>
+        <v>45930.8628647338</v>
       </c>
       <c r="H10" s="2">
-        <v>45925.63483026621</v>
+        <v>45930.8628647338</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2">
-        <v>45923.51151686342</v>
+        <v>45930.85759519676</v>
       </c>
       <c r="H11" s="2">
-        <v>45925.63498728009</v>
+        <v>45930.85759519676</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2">
-        <v>45922.86619854167</v>
+        <v>45929.85569865741</v>
       </c>
       <c r="H12" s="2">
-        <v>45924.589051620365</v>
+        <v>45930.837759999995</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2">
-        <v>45922.86247474537</v>
+        <v>45929.854249791664</v>
       </c>
       <c r="H13" s="2">
-        <v>45924.567712013886</v>
+        <v>45930.83100003473</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>45918.63270495371</v>
+        <v>45929.66413885417</v>
       </c>
       <c r="H14" s="2">
-        <v>45925.63520616898</v>
+        <v>45931.67441969908</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>45917.85808790509</v>
+        <v>45929.66269168981</v>
       </c>
       <c r="H15" s="2">
-        <v>45922.57553949074</v>
+        <v>45931.67464814815</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>45917.854047141205</v>
+        <v>45929.66073358797</v>
       </c>
       <c r="H16" s="2">
-        <v>45922.5785341088</v>
+        <v>45931.68139753472</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2">
-        <v>45917.852058379634</v>
+        <v>45926.545143703705</v>
       </c>
       <c r="H17" s="2">
-        <v>45922.58449797454</v>
+        <v>45926.830066435185</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>45912.75752151621</v>
+        <v>45925.6428600463</v>
       </c>
       <c r="H18" s="2">
-        <v>45913.0403471875</v>
+        <v>45931.67481680556</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>45912.7232403588</v>
+        <v>45925.637961562505</v>
       </c>
       <c r="H19" s="2">
-        <v>45913.05990692129</v>
+        <v>45931.67488774305</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>45909.79107238426</v>
+        <v>45925.63664084491</v>
       </c>
       <c r="H20" s="2">
-        <v>45909.79298650463</v>
+        <v>45925.63664084491</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2">
-        <v>45909.56787546296</v>
+        <v>45924.587756180554</v>
       </c>
       <c r="H21" s="2">
-        <v>45913.05994652778</v>
+        <v>45924.587756180554</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>45905.95788644676</v>
+        <v>45923.59069964121</v>
       </c>
       <c r="H22" s="2">
-        <v>45913.03854995371</v>
+        <v>45929.661491886574</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45923.516725567126</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45931.68161072917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45923.51227378473</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45925.63483026621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45923.51151686342</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45931.68177263888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G26" s="2">
+        <v>45922.86619854167</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45924.589051620365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45922.86247474537</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45924.567712013886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45918.63270495371</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45925.63520616898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45917.85808790509</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45922.57553949074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45917.854047141205</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45922.5785341088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45917.852058379634</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45922.58449797454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45912.75752151621</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45913.0403471875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45912.7232403588</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45913.05990692129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45909.79107238426</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45909.79298650463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45909.56787546296</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45913.05994652778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45905.95788644676</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45913.03854995371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="2">
         <v>45905.54996640046</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H37" s="2">
         <v>45905.55004829861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45900.86157086806</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45905.546187002314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45900.8604884838</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45905.54665925926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45900.86010208333</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45905.546760185185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45900.84488690972</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45905.54686899306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45891.61512190972</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45909.792239270835</v>
       </c>
     </row>
   </sheetData>
